--- a/AadhaarEnabledFraud.xlsx
+++ b/AadhaarEnabledFraud.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="990" yWindow="0" windowWidth="23010" windowHeight="10320" activeTab="1"/>
+    <workbookView xWindow="2970" yWindow="0" windowWidth="23010" windowHeight="10320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fake or Forged Aadhaar" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="430">
   <si>
     <t>Aadhaar-enabled banking frauds</t>
   </si>
@@ -1238,9 +1238,6 @@
     <t>UP: Fake Aadhaar, PAN cards used for duping banks, 2 held</t>
   </si>
   <si>
-    <t>Nida</t>
-  </si>
-  <si>
     <t>https://www.indiatoday.in/crime/story/up-fake-aadhaar-pan-cards-used-for-duping-banks-2-held-1648041-2020-02-19</t>
   </si>
   <si>
@@ -1248,13 +1245,91 @@
   </si>
   <si>
     <t>https://mathewthomasfiles.github.io/NewsFiles/File0036.html</t>
+  </si>
+  <si>
+    <t>https://mathewthomasfiles.github.io/NewsFiles/AadhaarEnabledFraud.xlsx</t>
+  </si>
+  <si>
+    <t>Aadhaar card frauds in Haryana: criminals use silicone thumbs</t>
+  </si>
+  <si>
+    <t>https://mathewthomasfiles.github.io/NewsFiles/File0037.html</t>
+  </si>
+  <si>
+    <t>Indian state government leaks thousands of Aadhaar numbers</t>
+  </si>
+  <si>
+    <t>Qvive</t>
+  </si>
+  <si>
+    <t>https://qvive.in/india-news/indian-state-government-leaks-thousands-of-aadhaar-numbers/</t>
+  </si>
+  <si>
+    <t>https://mathewthomasfiles.github.io/NewsFiles/File0038.html</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>https://www.thehindu.com/news/cities/bangalore/9-arrested-for-helping-illegal-bangladeshi-immigrants-obtain-identity-documents/article65517200.ece</t>
+  </si>
+  <si>
+    <t>https://mathewthomasfiles.github.io/NewsFiles/File0039.html</t>
+  </si>
+  <si>
+    <t>The Wire</t>
+  </si>
+  <si>
+    <t>https://mathewthomasfiles.github.io/NewsFiles/File0040.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://thewire.in/economy/aadhaar-fraud-uidai </t>
+  </si>
+  <si>
+    <t>https://indianexpress.com/article/cities/mumbai/fraudulent-calls-mumbai-callers-use-debit-card-aadhaar-data-to-dupe-eight-of-rs-2-42-lakh-4957645/</t>
+  </si>
+  <si>
+    <t>https://mathewthomasfiles.github.io/NewsFiles/File0041.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.everybodywiki.com/List_of_Aadhaar-enabled_frauds#cite_note-11 </t>
+  </si>
+  <si>
+    <t>https://mathewthomasfiles.github.io/NewsFiles/File0042.html</t>
+  </si>
+  <si>
+    <t>National Herald</t>
+  </si>
+  <si>
+    <t>https://www.nationalheraldindia.com/india/ration-scam-in-up-dealers-officers-loot-ration-worth-lakhs-of-rupees-by-fudging-aadhaar-details</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>https://mathewthomasfiles.github.io/NewsFiles/File0043.html</t>
+  </si>
+  <si>
+    <t>Krishi Jagaran</t>
+  </si>
+  <si>
+    <t>https://krishijagran.com/news/true-or-false-government-is-giving-loan-worth-rs-5-lakh-on-aadhaar-card/</t>
+  </si>
+  <si>
+    <t>https://mathewthomasfiles.github.io/NewsFiles/File0044.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://indianexpress.com/article/cities/chandigarh/haryana-crime-branch-red-flag-aadhaar-payment-frauds-8303833/ </t>
+  </si>
+  <si>
+    <t>EverybodyWiki</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1290,18 +1365,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Quattrocento Sans"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color rgb="FF0000FF"/>
-      <name val="Quattrocento Sans"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color rgb="FF0000FF"/>
       <name val="Quattrocento Sans"/>
     </font>
     <font>
@@ -1342,7 +1405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1450,8 +1513,10 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -1462,16 +1527,55 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="medium">
         <color rgb="FF000000"/>
-      </right>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1487,25 +1591,10 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1519,23 +1608,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1553,9 +1631,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1564,35 +1639,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1602,8 +1656,8 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1611,36 +1665,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1651,6 +1679,44 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1995,17 +2061,17 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" customHeight="1">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:26" ht="32.25" customHeight="1">
       <c r="A3" s="1"/>
@@ -2063,7 +2129,7 @@
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>43212</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -2083,5245 +2149,5245 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <v>43207</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="11">
         <v>43204</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="11">
         <v>43190</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="11">
         <v>43188</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="11">
         <v>43188</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="11">
         <v>43187</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="11">
         <v>43186</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="11">
         <v>43186</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="11">
         <v>43185</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="11">
         <v>43178</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="11">
         <v>43177</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="11">
         <v>43176</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="11">
         <v>43175</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="11">
         <v>43167</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="11">
         <v>43160</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="11">
         <v>43154</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="11">
         <v>43150</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="11">
         <v>43146</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="11">
         <v>43146</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="11">
         <v>43145</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="11">
         <v>43142</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="11">
         <v>43128</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="11">
         <v>43122</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="11">
         <v>43120</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="11">
         <v>43118</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="11">
         <v>43118</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I30" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="11">
         <v>43109</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="11">
         <v>43106</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="11">
         <v>43105</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="J33" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="11">
         <v>43104</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F34" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="I34" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="11">
         <v>43093</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I35" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="11">
         <v>43089</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="I36" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="11">
         <v>43087</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="I37" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="J37" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="11">
         <v>43086</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="11">
         <v>43085</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I39" s="11" t="s">
+      <c r="I39" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="J39" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="11">
         <v>43085</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="I40" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="11">
         <v>43083</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="11" t="s">
+      <c r="I41" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J41" s="11" t="s">
+      <c r="J41" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="11">
         <v>43082</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="11">
         <v>43082</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="H43" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="I43" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J43" s="11" t="s">
+      <c r="J43" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="11">
         <v>43077</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="11" t="s">
+      <c r="I44" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J44" s="11" t="s">
+      <c r="J44" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="11">
         <v>43068</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="H45" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="I45" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="J45" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="11">
         <v>43066</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G46" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="H46" s="11" t="s">
+      <c r="H46" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I46" s="11" t="s">
+      <c r="I46" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J46" s="11" t="s">
+      <c r="J46" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="11">
         <v>43062</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="G47" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="I47" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J47" s="11" t="s">
+      <c r="J47" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="11">
         <v>43050</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="H48" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="11">
         <v>43048</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="H49" s="11" t="s">
+      <c r="H49" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I49" s="11" t="s">
+      <c r="I49" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J49" s="11" t="s">
+      <c r="J49" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="11">
         <v>43045</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G50" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I50" s="11" t="s">
+      <c r="I50" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J50" s="11" t="s">
+      <c r="J50" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="51" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="11">
         <v>43041</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="G51" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="H51" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I51" s="11" t="s">
+      <c r="I51" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J51" s="11" t="s">
+      <c r="J51" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="11">
         <v>43039</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G52" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="H52" s="11" t="s">
+      <c r="H52" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I52" s="11" t="s">
+      <c r="I52" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J52" s="11" t="s">
+      <c r="J52" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="11">
         <v>43035</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="G53" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H53" s="11" t="s">
+      <c r="H53" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I53" s="11" t="s">
+      <c r="I53" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="11" t="s">
+      <c r="J53" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="11">
         <v>43020</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="G54" s="11" t="s">
+      <c r="G54" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H54" s="11" t="s">
+      <c r="H54" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="I54" s="11" t="s">
+      <c r="I54" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J54" s="11" t="s">
+      <c r="J54" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="55" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="11">
         <v>43017</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="H55" s="11" t="s">
+      <c r="H55" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I55" s="11" t="s">
+      <c r="I55" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J55" s="11" t="s">
+      <c r="J55" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="11">
         <v>43011</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="G56" s="11" t="s">
+      <c r="G56" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H56" s="11" t="s">
+      <c r="H56" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I56" s="11" t="s">
+      <c r="I56" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J56" s="11" t="s">
+      <c r="J56" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="11">
         <v>43000</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="G57" s="11" t="s">
+      <c r="G57" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="H57" s="11" t="s">
+      <c r="H57" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="I57" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J57" s="11" t="s">
+      <c r="J57" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E58" s="11">
         <v>42990</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="G58" s="11" t="s">
+      <c r="G58" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H58" s="11" t="s">
+      <c r="H58" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I58" s="11" t="s">
+      <c r="I58" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J58" s="11" t="s">
+      <c r="J58" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E59" s="11">
         <v>42989</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F59" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="G59" s="11" t="s">
+      <c r="G59" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H59" s="11" t="s">
+      <c r="H59" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="I59" s="11" t="s">
+      <c r="I59" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J59" s="11" t="s">
+      <c r="J59" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E60" s="11">
         <v>42951</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F60" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="G60" s="11" t="s">
+      <c r="G60" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H60" s="11" t="s">
+      <c r="H60" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I60" s="11" t="s">
+      <c r="I60" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J60" s="11" t="s">
+      <c r="J60" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E61" s="11">
         <v>42939</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F61" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="G61" s="11" t="s">
+      <c r="G61" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H61" s="11" t="s">
+      <c r="H61" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I61" s="11" t="s">
+      <c r="I61" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J61" s="11" t="s">
+      <c r="J61" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="62" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E62" s="11">
         <v>42902</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F62" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="G62" s="11" t="s">
+      <c r="G62" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H62" s="11" t="s">
+      <c r="H62" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I62" s="11" t="s">
+      <c r="I62" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J62" s="11" t="s">
+      <c r="J62" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="63" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="11">
         <v>42891</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="F63" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="G63" s="11" t="s">
+      <c r="G63" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H63" s="11" t="s">
+      <c r="H63" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I63" s="11" t="s">
+      <c r="I63" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J63" s="11" t="s">
+      <c r="J63" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="64" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="11">
         <v>42888</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="F64" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="G64" s="11" t="s">
+      <c r="G64" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H64" s="11" t="s">
+      <c r="H64" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="11" t="s">
+      <c r="I64" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J64" s="11" t="s">
+      <c r="J64" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65" s="11">
         <v>42886</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="F65" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="G65" s="11" t="s">
+      <c r="G65" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H65" s="11" t="s">
+      <c r="H65" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I65" s="11" t="s">
+      <c r="I65" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J65" s="11" t="s">
+      <c r="J65" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="11">
         <v>42886</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F66" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="G66" s="11" t="s">
+      <c r="G66" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H66" s="11" t="s">
+      <c r="H66" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I66" s="11" t="s">
+      <c r="I66" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J66" s="11" t="s">
+      <c r="J66" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="67" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E67" s="11">
         <v>42881</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F67" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="G67" s="11" t="s">
+      <c r="G67" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H67" s="11" t="s">
+      <c r="H67" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I67" s="11" t="s">
+      <c r="I67" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J67" s="11" t="s">
+      <c r="J67" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="68" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E68" s="11">
         <v>42872</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F68" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="G68" s="11" t="s">
+      <c r="G68" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H68" s="11" t="s">
+      <c r="H68" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I68" s="11" t="s">
+      <c r="I68" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J68" s="11" t="s">
+      <c r="J68" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E69" s="11">
         <v>42855</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="G69" s="11" t="s">
+      <c r="G69" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="H69" s="11" t="s">
+      <c r="H69" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I69" s="11" t="s">
+      <c r="I69" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J69" s="11" t="s">
+      <c r="J69" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E70" s="11">
         <v>42853</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="F70" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="G70" s="11" t="s">
+      <c r="G70" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H70" s="11" t="s">
+      <c r="H70" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="I70" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J70" s="11" t="s">
+      <c r="J70" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="71" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E71" s="11">
         <v>42853</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="F71" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="G71" s="11" t="s">
+      <c r="G71" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H71" s="11" t="s">
+      <c r="H71" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I71" s="11" t="s">
+      <c r="I71" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J71" s="11" t="s">
+      <c r="J71" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="72" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E72" s="11">
         <v>42831</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="F72" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="G72" s="11" t="s">
+      <c r="G72" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H72" s="11" t="s">
+      <c r="H72" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I72" s="11" t="s">
+      <c r="I72" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J72" s="11" t="s">
+      <c r="J72" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E73" s="11">
         <v>42772</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="F73" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="G73" s="11" t="s">
+      <c r="G73" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="H73" s="11" t="s">
+      <c r="H73" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I73" s="11" t="s">
+      <c r="I73" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J73" s="11" t="s">
+      <c r="J73" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E74" s="11">
         <v>42766</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="F74" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="G74" s="11" t="s">
+      <c r="G74" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H74" s="11" t="s">
+      <c r="H74" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I74" s="11" t="s">
+      <c r="I74" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J74" s="11" t="s">
+      <c r="J74" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="75" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E75" s="11">
         <v>42724</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="F75" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="G75" s="11" t="s">
+      <c r="G75" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H75" s="11" t="s">
+      <c r="H75" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="I75" s="11" t="s">
+      <c r="I75" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J75" s="11" t="s">
+      <c r="J75" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="76" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D76" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E76" s="11">
         <v>42707</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="F76" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="G76" s="11" t="s">
+      <c r="G76" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="H76" s="11" t="s">
+      <c r="H76" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I76" s="11" t="s">
+      <c r="I76" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J76" s="11" t="s">
+      <c r="J76" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="77" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E77" s="11">
         <v>42677</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="F77" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="G77" s="11" t="s">
+      <c r="G77" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H77" s="11" t="s">
+      <c r="H77" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I77" s="11" t="s">
+      <c r="I77" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J77" s="11" t="s">
+      <c r="J77" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="78" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E78" s="11">
         <v>42656</v>
       </c>
-      <c r="F78" s="9" t="s">
+      <c r="F78" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="G78" s="11" t="s">
+      <c r="G78" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="H78" s="11" t="s">
+      <c r="H78" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I78" s="11" t="s">
+      <c r="I78" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J78" s="11" t="s">
+      <c r="J78" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="79" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E79" s="11">
         <v>42609</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="F79" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="G79" s="11" t="s">
+      <c r="G79" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H79" s="11" t="s">
+      <c r="H79" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I79" s="11" t="s">
+      <c r="I79" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J79" s="11" t="s">
+      <c r="J79" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E80" s="11">
         <v>42583</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F80" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="G80" s="11" t="s">
+      <c r="G80" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H80" s="11" t="s">
+      <c r="H80" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I80" s="11" t="s">
+      <c r="I80" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J80" s="11" t="s">
+      <c r="J80" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E81" s="11">
         <v>42578</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="F81" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="G81" s="11" t="s">
+      <c r="G81" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H81" s="11" t="s">
+      <c r="H81" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I81" s="11" t="s">
+      <c r="I81" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J81" s="11" t="s">
+      <c r="J81" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E82" s="11">
         <v>42561</v>
       </c>
-      <c r="F82" s="9" t="s">
+      <c r="F82" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="G82" s="11" t="s">
+      <c r="G82" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H82" s="11" t="s">
+      <c r="H82" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I82" s="11" t="s">
+      <c r="I82" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J82" s="11" t="s">
+      <c r="J82" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="83" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E83" s="11">
         <v>42560</v>
       </c>
-      <c r="F83" s="9" t="s">
+      <c r="F83" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="G83" s="11" t="s">
+      <c r="G83" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H83" s="11" t="s">
+      <c r="H83" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I83" s="11" t="s">
+      <c r="I83" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J83" s="11" t="s">
+      <c r="J83" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E84" s="11">
         <v>42546</v>
       </c>
-      <c r="F84" s="9" t="s">
+      <c r="F84" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="G84" s="11" t="s">
+      <c r="G84" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="H84" s="11" t="s">
+      <c r="H84" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I84" s="11" t="s">
+      <c r="I84" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J84" s="11" t="s">
+      <c r="J84" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="85" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E85" s="11">
         <v>42508</v>
       </c>
-      <c r="F85" s="9" t="s">
+      <c r="F85" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="G85" s="11" t="s">
+      <c r="G85" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H85" s="11" t="s">
+      <c r="H85" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I85" s="11" t="s">
+      <c r="I85" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J85" s="11" t="s">
+      <c r="J85" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="86" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E86" s="11">
         <v>42507</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="F86" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="G86" s="11" t="s">
+      <c r="G86" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H86" s="11" t="s">
+      <c r="H86" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I86" s="11" t="s">
+      <c r="I86" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J86" s="11" t="s">
+      <c r="J86" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="87" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="D87" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E87" s="11">
         <v>42505</v>
       </c>
-      <c r="F87" s="9" t="s">
+      <c r="F87" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="G87" s="11" t="s">
+      <c r="G87" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H87" s="11" t="s">
+      <c r="H87" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I87" s="11" t="s">
+      <c r="I87" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J87" s="11" t="s">
+      <c r="J87" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="88" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="D88" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E88" s="11">
         <v>42324</v>
       </c>
-      <c r="F88" s="9" t="s">
+      <c r="F88" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="G88" s="11" t="s">
+      <c r="G88" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H88" s="11" t="s">
+      <c r="H88" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I88" s="11" t="s">
+      <c r="I88" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J88" s="11" t="s">
+      <c r="J88" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="89" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="D89" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E89" s="11">
         <v>42262</v>
       </c>
-      <c r="F89" s="9" t="s">
+      <c r="F89" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="G89" s="11" t="s">
+      <c r="G89" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H89" s="11" t="s">
+      <c r="H89" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I89" s="11" t="s">
+      <c r="I89" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J89" s="11" t="s">
+      <c r="J89" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="90" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="E90" s="13">
+      <c r="E90" s="11">
         <v>42190</v>
       </c>
-      <c r="F90" s="9" t="s">
+      <c r="F90" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="G90" s="11" t="s">
+      <c r="G90" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H90" s="11" t="s">
+      <c r="H90" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I90" s="11" t="s">
+      <c r="I90" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J90" s="11" t="s">
+      <c r="J90" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="91" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E91" s="13">
+      <c r="E91" s="11">
         <v>42189</v>
       </c>
-      <c r="F91" s="9" t="s">
+      <c r="F91" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="G91" s="11" t="s">
+      <c r="G91" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="H91" s="11" t="s">
+      <c r="H91" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I91" s="11" t="s">
+      <c r="I91" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J91" s="11" t="s">
+      <c r="J91" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="92" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C92" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="D92" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E92" s="13">
+      <c r="E92" s="11">
         <v>42187</v>
       </c>
-      <c r="F92" s="9" t="s">
+      <c r="F92" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="G92" s="11" t="s">
+      <c r="G92" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H92" s="11" t="s">
+      <c r="H92" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I92" s="11" t="s">
+      <c r="I92" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J92" s="11" t="s">
+      <c r="J92" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="93" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D93" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="E93" s="13">
+      <c r="E93" s="11">
         <v>41943</v>
       </c>
-      <c r="F93" s="9" t="s">
+      <c r="F93" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="G93" s="11" t="s">
+      <c r="G93" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="H93" s="11" t="s">
+      <c r="H93" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I93" s="11" t="s">
+      <c r="I93" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J93" s="11" t="s">
+      <c r="J93" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="94" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C94" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="D94" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E94" s="13">
+      <c r="E94" s="11">
         <v>41939</v>
       </c>
-      <c r="F94" s="9" t="s">
+      <c r="F94" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="G94" s="11" t="s">
+      <c r="G94" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H94" s="11" t="s">
+      <c r="H94" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I94" s="11" t="s">
+      <c r="I94" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J94" s="11" t="s">
+      <c r="J94" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="95" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C95" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D95" s="11" t="s">
+      <c r="D95" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="E95" s="13">
+      <c r="E95" s="11">
         <v>41817</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="F95" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="G95" s="11" t="s">
+      <c r="G95" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H95" s="11" t="s">
+      <c r="H95" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I95" s="11" t="s">
+      <c r="I95" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J95" s="11" t="s">
+      <c r="J95" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="96" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C96" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="D96" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E96" s="13">
+      <c r="E96" s="11">
         <v>41723</v>
       </c>
-      <c r="F96" s="9" t="s">
+      <c r="F96" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="G96" s="11" t="s">
+      <c r="G96" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H96" s="11" t="s">
+      <c r="H96" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I96" s="11" t="s">
+      <c r="I96" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J96" s="11" t="s">
+      <c r="J96" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="97" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C97" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="D97" s="11" t="s">
+      <c r="D97" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E97" s="13">
+      <c r="E97" s="11">
         <v>41293</v>
       </c>
-      <c r="F97" s="9" t="s">
+      <c r="F97" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="G97" s="11" t="s">
+      <c r="G97" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H97" s="11" t="s">
+      <c r="H97" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I97" s="11" t="s">
+      <c r="I97" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J97" s="11" t="s">
+      <c r="J97" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="98" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C98" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="D98" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E98" s="13">
+      <c r="E98" s="11">
         <v>41077</v>
       </c>
-      <c r="F98" s="9" t="s">
+      <c r="F98" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="G98" s="11" t="s">
+      <c r="G98" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H98" s="11" t="s">
+      <c r="H98" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I98" s="11" t="s">
+      <c r="I98" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J98" s="11" t="s">
+      <c r="J98" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="99" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C99" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D99" s="11" t="s">
+      <c r="D99" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E99" s="13">
+      <c r="E99" s="11">
         <v>41026</v>
       </c>
-      <c r="F99" s="9" t="s">
+      <c r="F99" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="G99" s="11" t="s">
+      <c r="G99" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="H99" s="11" t="s">
+      <c r="H99" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I99" s="11" t="s">
+      <c r="I99" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J99" s="11" t="s">
+      <c r="J99" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="100" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B100" s="22" t="s">
+      <c r="B100" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="C100" s="23" t="s">
+      <c r="C100" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="D100" s="23" t="s">
+      <c r="D100" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E100" s="24">
+      <c r="E100" s="14">
         <v>40993</v>
       </c>
-      <c r="F100" s="28" t="s">
+      <c r="F100" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="G100" s="23" t="s">
+      <c r="G100" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H100" s="23" t="s">
+      <c r="H100" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I100" s="23" t="s">
+      <c r="I100" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J100" s="23" t="s">
+      <c r="J100" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="101" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B101" s="25" t="s">
+      <c r="B101" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="C101" s="26" t="s">
+      <c r="C101" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D101" s="26" t="s">
+      <c r="D101" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E101" s="27">
+      <c r="E101" s="17">
         <v>42670</v>
       </c>
-      <c r="F101" s="25" t="s">
+      <c r="F101" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="G101" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H101" s="26" t="s">
+      <c r="G101" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H101" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="I101" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J101" s="26" t="s">
+      <c r="I101" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J101" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="102" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B102" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C102" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D102" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E102" s="27"/>
-      <c r="F102" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G102" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H102" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I102" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J102" s="26" t="s">
+      <c r="B102" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D102" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E102" s="17"/>
+      <c r="F102" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G102" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H102" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I102" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J102" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="103" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B103" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C103" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D103" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E103" s="27"/>
-      <c r="F103" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G103" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H103" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I103" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J103" s="26" t="s">
+      <c r="B103" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E103" s="17"/>
+      <c r="F103" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G103" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H103" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I103" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J103" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="104" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B104" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C104" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D104" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E104" s="27"/>
-      <c r="F104" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G104" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H104" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I104" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J104" s="26" t="s">
+      <c r="B104" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D104" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E104" s="17"/>
+      <c r="F104" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G104" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H104" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I104" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J104" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="105" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B105" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C105" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D105" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E105" s="27"/>
-      <c r="F105" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G105" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H105" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I105" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J105" s="26" t="s">
+      <c r="B105" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D105" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E105" s="17"/>
+      <c r="F105" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G105" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H105" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I105" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J105" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="106" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B106" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C106" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D106" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E106" s="27"/>
-      <c r="F106" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G106" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H106" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I106" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J106" s="26" t="s">
+      <c r="B106" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D106" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E106" s="17"/>
+      <c r="F106" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G106" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H106" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I106" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J106" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="107" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B107" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C107" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D107" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E107" s="27"/>
-      <c r="F107" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G107" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H107" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I107" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J107" s="26" t="s">
+      <c r="B107" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D107" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E107" s="17"/>
+      <c r="F107" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G107" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H107" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I107" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J107" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="108" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B108" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C108" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D108" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E108" s="27"/>
-      <c r="F108" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G108" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H108" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I108" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J108" s="26" t="s">
+      <c r="B108" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D108" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E108" s="17"/>
+      <c r="F108" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G108" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H108" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I108" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J108" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="109" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B109" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C109" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D109" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E109" s="27"/>
-      <c r="F109" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G109" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H109" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I109" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J109" s="26" t="s">
+      <c r="B109" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E109" s="17"/>
+      <c r="F109" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G109" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H109" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I109" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J109" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="110" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B110" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C110" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D110" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E110" s="27"/>
-      <c r="F110" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G110" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H110" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I110" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J110" s="26" t="s">
+      <c r="B110" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E110" s="17"/>
+      <c r="F110" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G110" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H110" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I110" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J110" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="111" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B111" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C111" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D111" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E111" s="27"/>
-      <c r="F111" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G111" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H111" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I111" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J111" s="26" t="s">
+      <c r="B111" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D111" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E111" s="17"/>
+      <c r="F111" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G111" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H111" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I111" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J111" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="112" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B112" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C112" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D112" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E112" s="27"/>
-      <c r="F112" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G112" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H112" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I112" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J112" s="26" t="s">
+      <c r="B112" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E112" s="17"/>
+      <c r="F112" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H112" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I112" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J112" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="113" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B113" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C113" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D113" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E113" s="27"/>
-      <c r="F113" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G113" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H113" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I113" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J113" s="26" t="s">
+      <c r="B113" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E113" s="17"/>
+      <c r="F113" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G113" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H113" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I113" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J113" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="114" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B114" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C114" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D114" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E114" s="27"/>
-      <c r="F114" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G114" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H114" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I114" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J114" s="26" t="s">
+      <c r="B114" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D114" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E114" s="17"/>
+      <c r="F114" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G114" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H114" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I114" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J114" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="115" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B115" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C115" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D115" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E115" s="27"/>
-      <c r="F115" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G115" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H115" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I115" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J115" s="26" t="s">
+      <c r="B115" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D115" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E115" s="17"/>
+      <c r="F115" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G115" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H115" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I115" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J115" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="116" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B116" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C116" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D116" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E116" s="27"/>
-      <c r="F116" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G116" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H116" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I116" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J116" s="26" t="s">
+      <c r="B116" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D116" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E116" s="17"/>
+      <c r="F116" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G116" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H116" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I116" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J116" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="117" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B117" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C117" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D117" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E117" s="27"/>
-      <c r="F117" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G117" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H117" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I117" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J117" s="26" t="s">
+      <c r="B117" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D117" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E117" s="17"/>
+      <c r="F117" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G117" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H117" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I117" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J117" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="118" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B118" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C118" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D118" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E118" s="27"/>
-      <c r="F118" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G118" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H118" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I118" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J118" s="26" t="s">
+      <c r="B118" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D118" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E118" s="17"/>
+      <c r="F118" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G118" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H118" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I118" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J118" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="119" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B119" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C119" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D119" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E119" s="27"/>
-      <c r="F119" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G119" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H119" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I119" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J119" s="26" t="s">
+      <c r="B119" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D119" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E119" s="17"/>
+      <c r="F119" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G119" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H119" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I119" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J119" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="120" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B120" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C120" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D120" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E120" s="27"/>
-      <c r="F120" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G120" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H120" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I120" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J120" s="26" t="s">
+      <c r="B120" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D120" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E120" s="17"/>
+      <c r="F120" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G120" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H120" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I120" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J120" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="121" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B121" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C121" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D121" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E121" s="27"/>
-      <c r="F121" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G121" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H121" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I121" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J121" s="26" t="s">
+      <c r="B121" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D121" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E121" s="17"/>
+      <c r="F121" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G121" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H121" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I121" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J121" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="122" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B122" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C122" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D122" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E122" s="27"/>
-      <c r="F122" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G122" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H122" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I122" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J122" s="26" t="s">
+      <c r="B122" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E122" s="17"/>
+      <c r="F122" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G122" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H122" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I122" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J122" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="123" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B123" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C123" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D123" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E123" s="27"/>
-      <c r="F123" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G123" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H123" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I123" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J123" s="26" t="s">
+      <c r="B123" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D123" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E123" s="17"/>
+      <c r="F123" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G123" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H123" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I123" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J123" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="124" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B124" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C124" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D124" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E124" s="27"/>
-      <c r="F124" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G124" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H124" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I124" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J124" s="26" t="s">
+      <c r="B124" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E124" s="17"/>
+      <c r="F124" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G124" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H124" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I124" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J124" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="125" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B125" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C125" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D125" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E125" s="27"/>
-      <c r="F125" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G125" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H125" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I125" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J125" s="26" t="s">
+      <c r="B125" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E125" s="17"/>
+      <c r="F125" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G125" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H125" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I125" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J125" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="126" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B126" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C126" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D126" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E126" s="27"/>
-      <c r="F126" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G126" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H126" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I126" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J126" s="26" t="s">
+      <c r="B126" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E126" s="17"/>
+      <c r="F126" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G126" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H126" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I126" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J126" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="127" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B127" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C127" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D127" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E127" s="27"/>
-      <c r="F127" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G127" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H127" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I127" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J127" s="26" t="s">
+      <c r="B127" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E127" s="17"/>
+      <c r="F127" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G127" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H127" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I127" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J127" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="128" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B128" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C128" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D128" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E128" s="27"/>
-      <c r="F128" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G128" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H128" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I128" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J128" s="26" t="s">
+      <c r="B128" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D128" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E128" s="17"/>
+      <c r="F128" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G128" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H128" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I128" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J128" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="129" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B129" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C129" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D129" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E129" s="27"/>
-      <c r="F129" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G129" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H129" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I129" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J129" s="26" t="s">
+      <c r="B129" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E129" s="17"/>
+      <c r="F129" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G129" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H129" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I129" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J129" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="130" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B130" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C130" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D130" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E130" s="27"/>
-      <c r="F130" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G130" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H130" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I130" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J130" s="26" t="s">
+      <c r="B130" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D130" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E130" s="17"/>
+      <c r="F130" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G130" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H130" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I130" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J130" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="131" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B131" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C131" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D131" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E131" s="27"/>
-      <c r="F131" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G131" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H131" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I131" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J131" s="26" t="s">
+      <c r="B131" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E131" s="17"/>
+      <c r="F131" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G131" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H131" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I131" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J131" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="132" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B132" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C132" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D132" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E132" s="27"/>
-      <c r="F132" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G132" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H132" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I132" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J132" s="26" t="s">
+      <c r="B132" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D132" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E132" s="17"/>
+      <c r="F132" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G132" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H132" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I132" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J132" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="133" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B133" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C133" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D133" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E133" s="27"/>
-      <c r="F133" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G133" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H133" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I133" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J133" s="26" t="s">
+      <c r="B133" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E133" s="17"/>
+      <c r="F133" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G133" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H133" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I133" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J133" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="134" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B134" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C134" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D134" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E134" s="27"/>
-      <c r="F134" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G134" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H134" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I134" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J134" s="26" t="s">
+      <c r="B134" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D134" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E134" s="17"/>
+      <c r="F134" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G134" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H134" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I134" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J134" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="135" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B135" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C135" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D135" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E135" s="27"/>
-      <c r="F135" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G135" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H135" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I135" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J135" s="26" t="s">
+      <c r="B135" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D135" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E135" s="17"/>
+      <c r="F135" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G135" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H135" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I135" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J135" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="136" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B136" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C136" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D136" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E136" s="27"/>
-      <c r="F136" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G136" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H136" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I136" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J136" s="26" t="s">
+      <c r="B136" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E136" s="17"/>
+      <c r="F136" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G136" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H136" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I136" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J136" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="137" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B137" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C137" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D137" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E137" s="27"/>
-      <c r="F137" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G137" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H137" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I137" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J137" s="26" t="s">
+      <c r="B137" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E137" s="17"/>
+      <c r="F137" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G137" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H137" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I137" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J137" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="138" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B138" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C138" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D138" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E138" s="27"/>
-      <c r="F138" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G138" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H138" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I138" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J138" s="26" t="s">
+      <c r="B138" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E138" s="17"/>
+      <c r="F138" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G138" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H138" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I138" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J138" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="139" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B139" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C139" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D139" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E139" s="27"/>
-      <c r="F139" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G139" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H139" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I139" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J139" s="26" t="s">
+      <c r="B139" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D139" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E139" s="17"/>
+      <c r="F139" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G139" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H139" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I139" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J139" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="140" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B140" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C140" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D140" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E140" s="27"/>
-      <c r="F140" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G140" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H140" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I140" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J140" s="26" t="s">
+      <c r="B140" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D140" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E140" s="17"/>
+      <c r="F140" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G140" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H140" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I140" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J140" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="141" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B141" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C141" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D141" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E141" s="27"/>
-      <c r="F141" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G141" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H141" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I141" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J141" s="26" t="s">
+      <c r="B141" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E141" s="17"/>
+      <c r="F141" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G141" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H141" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I141" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J141" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="142" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B142" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C142" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D142" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E142" s="27"/>
-      <c r="F142" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G142" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H142" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I142" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J142" s="26" t="s">
+      <c r="B142" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D142" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E142" s="17"/>
+      <c r="F142" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G142" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H142" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I142" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J142" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="143" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B143" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C143" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D143" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E143" s="27"/>
-      <c r="F143" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G143" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H143" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I143" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J143" s="26" t="s">
+      <c r="B143" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D143" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E143" s="17"/>
+      <c r="F143" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G143" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H143" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I143" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J143" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="144" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B144" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C144" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D144" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E144" s="27"/>
-      <c r="F144" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G144" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H144" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I144" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J144" s="26" t="s">
+      <c r="B144" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D144" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E144" s="17"/>
+      <c r="F144" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G144" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H144" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I144" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J144" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="145" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B145" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C145" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D145" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E145" s="27"/>
-      <c r="F145" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G145" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H145" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I145" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J145" s="26" t="s">
+      <c r="B145" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D145" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E145" s="17"/>
+      <c r="F145" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G145" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H145" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I145" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J145" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="146" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B146" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C146" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D146" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E146" s="27"/>
-      <c r="F146" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G146" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H146" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I146" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J146" s="26" t="s">
+      <c r="B146" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D146" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E146" s="17"/>
+      <c r="F146" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G146" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H146" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I146" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J146" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="147" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B147" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C147" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D147" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E147" s="27"/>
-      <c r="F147" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G147" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H147" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I147" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J147" s="26" t="s">
+      <c r="B147" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D147" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E147" s="17"/>
+      <c r="F147" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G147" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H147" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I147" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J147" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="148" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B148" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C148" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D148" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E148" s="27"/>
-      <c r="F148" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G148" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H148" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I148" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J148" s="26" t="s">
+      <c r="B148" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D148" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E148" s="17"/>
+      <c r="F148" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G148" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H148" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I148" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J148" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="149" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B149" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C149" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D149" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E149" s="27"/>
-      <c r="F149" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G149" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H149" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I149" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J149" s="26" t="s">
+      <c r="B149" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D149" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E149" s="17"/>
+      <c r="F149" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G149" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H149" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I149" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J149" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="150" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B150" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C150" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D150" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E150" s="27"/>
-      <c r="F150" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G150" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H150" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I150" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J150" s="26" t="s">
+      <c r="B150" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D150" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E150" s="17"/>
+      <c r="F150" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G150" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H150" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I150" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J150" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="151" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B151" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C151" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D151" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E151" s="27"/>
-      <c r="F151" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G151" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H151" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I151" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J151" s="26" t="s">
+      <c r="B151" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D151" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E151" s="17"/>
+      <c r="F151" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G151" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H151" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I151" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J151" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="152" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B152" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C152" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D152" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E152" s="27"/>
-      <c r="F152" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G152" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H152" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I152" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J152" s="26" t="s">
+      <c r="B152" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D152" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E152" s="17"/>
+      <c r="F152" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G152" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H152" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I152" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J152" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="153" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B153" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C153" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D153" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E153" s="27"/>
-      <c r="F153" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G153" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H153" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I153" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J153" s="26" t="s">
+      <c r="B153" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D153" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E153" s="17"/>
+      <c r="F153" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G153" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H153" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I153" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J153" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="154" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B154" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C154" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D154" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E154" s="27"/>
-      <c r="F154" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G154" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H154" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I154" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J154" s="26" t="s">
+      <c r="B154" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D154" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E154" s="17"/>
+      <c r="F154" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G154" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H154" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I154" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J154" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="155" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B155" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C155" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D155" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E155" s="27"/>
-      <c r="F155" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G155" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H155" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I155" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J155" s="26" t="s">
+      <c r="B155" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D155" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E155" s="17"/>
+      <c r="F155" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G155" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H155" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I155" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J155" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="156" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B156" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C156" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D156" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E156" s="27"/>
-      <c r="F156" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G156" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H156" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I156" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J156" s="26" t="s">
+      <c r="B156" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D156" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E156" s="17"/>
+      <c r="F156" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G156" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H156" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I156" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J156" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="157" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B157" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C157" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D157" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E157" s="27"/>
-      <c r="F157" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G157" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H157" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I157" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J157" s="26" t="s">
+      <c r="B157" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D157" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E157" s="17"/>
+      <c r="F157" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G157" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H157" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I157" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J157" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="158" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B158" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C158" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D158" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E158" s="27"/>
-      <c r="F158" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G158" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H158" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I158" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J158" s="26" t="s">
+      <c r="B158" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C158" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D158" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E158" s="17"/>
+      <c r="F158" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G158" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H158" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I158" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J158" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="159" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B159" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C159" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D159" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E159" s="27"/>
-      <c r="F159" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G159" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H159" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I159" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J159" s="26" t="s">
+      <c r="B159" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C159" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D159" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E159" s="17"/>
+      <c r="F159" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G159" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H159" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I159" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J159" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="160" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B160" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C160" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D160" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E160" s="27"/>
-      <c r="F160" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G160" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H160" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I160" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J160" s="26" t="s">
+      <c r="B160" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C160" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D160" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E160" s="17"/>
+      <c r="F160" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G160" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H160" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I160" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J160" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="161" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B161" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C161" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D161" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E161" s="27"/>
-      <c r="F161" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G161" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H161" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I161" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J161" s="26" t="s">
+      <c r="B161" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C161" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D161" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E161" s="17"/>
+      <c r="F161" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G161" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H161" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I161" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J161" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="162" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B162" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C162" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D162" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E162" s="27"/>
-      <c r="F162" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G162" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H162" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I162" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J162" s="26" t="s">
+      <c r="B162" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C162" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D162" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E162" s="17"/>
+      <c r="F162" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G162" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H162" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I162" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J162" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="163" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B163" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C163" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D163" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E163" s="27"/>
-      <c r="F163" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G163" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H163" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I163" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J163" s="26" t="s">
+      <c r="B163" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C163" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D163" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E163" s="17"/>
+      <c r="F163" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G163" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H163" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I163" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J163" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="164" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B164" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C164" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D164" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E164" s="27"/>
-      <c r="F164" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G164" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H164" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I164" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J164" s="26" t="s">
+      <c r="B164" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C164" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D164" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E164" s="17"/>
+      <c r="F164" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G164" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H164" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I164" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J164" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="165" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B165" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C165" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D165" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E165" s="27"/>
-      <c r="F165" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G165" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H165" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I165" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J165" s="26" t="s">
+      <c r="B165" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C165" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D165" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E165" s="17"/>
+      <c r="F165" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G165" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H165" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I165" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J165" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="166" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B166" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C166" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D166" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E166" s="27"/>
-      <c r="F166" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G166" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H166" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I166" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J166" s="26" t="s">
+      <c r="B166" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C166" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D166" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E166" s="17"/>
+      <c r="F166" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G166" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H166" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I166" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J166" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="167" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B167" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C167" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D167" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E167" s="27"/>
-      <c r="F167" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G167" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H167" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I167" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J167" s="26" t="s">
+      <c r="B167" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C167" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D167" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E167" s="17"/>
+      <c r="F167" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G167" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H167" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I167" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J167" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="168" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B168" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C168" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D168" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E168" s="27"/>
-      <c r="F168" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G168" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H168" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I168" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J168" s="26" t="s">
+      <c r="B168" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D168" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E168" s="17"/>
+      <c r="F168" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G168" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H168" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I168" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J168" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="169" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B169" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C169" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D169" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E169" s="27"/>
-      <c r="F169" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G169" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H169" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I169" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J169" s="26" t="s">
+      <c r="B169" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D169" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E169" s="17"/>
+      <c r="F169" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G169" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H169" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I169" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J169" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="170" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B170" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C170" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D170" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E170" s="27"/>
-      <c r="F170" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G170" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H170" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I170" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J170" s="26" t="s">
+      <c r="B170" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C170" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D170" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E170" s="17"/>
+      <c r="F170" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G170" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H170" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I170" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J170" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="171" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B171" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C171" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D171" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E171" s="27"/>
-      <c r="F171" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G171" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H171" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I171" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J171" s="26" t="s">
+      <c r="B171" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D171" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E171" s="17"/>
+      <c r="F171" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G171" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H171" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I171" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J171" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="172" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B172" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C172" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D172" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E172" s="27"/>
-      <c r="F172" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G172" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H172" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I172" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J172" s="26" t="s">
+      <c r="B172" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C172" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D172" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E172" s="17"/>
+      <c r="F172" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G172" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H172" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I172" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J172" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="173" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B173" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C173" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D173" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E173" s="27"/>
-      <c r="F173" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G173" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H173" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I173" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J173" s="26" t="s">
+      <c r="B173" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D173" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E173" s="17"/>
+      <c r="F173" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G173" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H173" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I173" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J173" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="174" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B174" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C174" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D174" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E174" s="27"/>
-      <c r="F174" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G174" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H174" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I174" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J174" s="26" t="s">
+      <c r="B174" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C174" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D174" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E174" s="17"/>
+      <c r="F174" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G174" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H174" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I174" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J174" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="175" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B175" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C175" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D175" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E175" s="27"/>
-      <c r="F175" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G175" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H175" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I175" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J175" s="26" t="s">
+      <c r="B175" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C175" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D175" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E175" s="17"/>
+      <c r="F175" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G175" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H175" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I175" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J175" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="176" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B176" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C176" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D176" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E176" s="27"/>
-      <c r="F176" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G176" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H176" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I176" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J176" s="26" t="s">
+      <c r="B176" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C176" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D176" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E176" s="17"/>
+      <c r="F176" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G176" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H176" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I176" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J176" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="177" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B177" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C177" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D177" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E177" s="27"/>
-      <c r="F177" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G177" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H177" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I177" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J177" s="26" t="s">
+      <c r="B177" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C177" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D177" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E177" s="17"/>
+      <c r="F177" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G177" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H177" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I177" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J177" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="178" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B178" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C178" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D178" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E178" s="27"/>
-      <c r="F178" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G178" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H178" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I178" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J178" s="26" t="s">
+      <c r="B178" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C178" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D178" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E178" s="17"/>
+      <c r="F178" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G178" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H178" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I178" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J178" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="179" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B179" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C179" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D179" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E179" s="27"/>
-      <c r="F179" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G179" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H179" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I179" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J179" s="26" t="s">
+      <c r="B179" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C179" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D179" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E179" s="17"/>
+      <c r="F179" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G179" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H179" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I179" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J179" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="180" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B180" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C180" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D180" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E180" s="27"/>
-      <c r="F180" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G180" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H180" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I180" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J180" s="26" t="s">
+      <c r="B180" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C180" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D180" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E180" s="17"/>
+      <c r="F180" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G180" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H180" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I180" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J180" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="181" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B181" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C181" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D181" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E181" s="27"/>
-      <c r="F181" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G181" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H181" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I181" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J181" s="26" t="s">
+      <c r="B181" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C181" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D181" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E181" s="17"/>
+      <c r="F181" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G181" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H181" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I181" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J181" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="182" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B182" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C182" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D182" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E182" s="27"/>
-      <c r="F182" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G182" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H182" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I182" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J182" s="26" t="s">
+      <c r="B182" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C182" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D182" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E182" s="17"/>
+      <c r="F182" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G182" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H182" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I182" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J182" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="183" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B183" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C183" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D183" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E183" s="27"/>
-      <c r="F183" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G183" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H183" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I183" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J183" s="26" t="s">
+      <c r="B183" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C183" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D183" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E183" s="17"/>
+      <c r="F183" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G183" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H183" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I183" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J183" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="184" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B184" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C184" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D184" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E184" s="27"/>
-      <c r="F184" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G184" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H184" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I184" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J184" s="26" t="s">
+      <c r="B184" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C184" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D184" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E184" s="17"/>
+      <c r="F184" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G184" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H184" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I184" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J184" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="185" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B185" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C185" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D185" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E185" s="27"/>
-      <c r="F185" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G185" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H185" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I185" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J185" s="26" t="s">
+      <c r="B185" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C185" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D185" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E185" s="17"/>
+      <c r="F185" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G185" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H185" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I185" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J185" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="186" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B186" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C186" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D186" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E186" s="27"/>
-      <c r="F186" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G186" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H186" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I186" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J186" s="26" t="s">
+      <c r="B186" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C186" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D186" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E186" s="17"/>
+      <c r="F186" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G186" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H186" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I186" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J186" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="187" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B187" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C187" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D187" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E187" s="27"/>
-      <c r="F187" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G187" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H187" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I187" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J187" s="26" t="s">
+      <c r="B187" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C187" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D187" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E187" s="17"/>
+      <c r="F187" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G187" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H187" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I187" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J187" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="188" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B188" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C188" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D188" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E188" s="27"/>
-      <c r="F188" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G188" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H188" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I188" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J188" s="26" t="s">
+      <c r="B188" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C188" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D188" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E188" s="17"/>
+      <c r="F188" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G188" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H188" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I188" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J188" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="189" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B189" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C189" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D189" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E189" s="27"/>
-      <c r="F189" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G189" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H189" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I189" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J189" s="26" t="s">
+      <c r="B189" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C189" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D189" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E189" s="17"/>
+      <c r="F189" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G189" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H189" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I189" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J189" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="190" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B190" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C190" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D190" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E190" s="27"/>
-      <c r="F190" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G190" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H190" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I190" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J190" s="26" t="s">
+      <c r="B190" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C190" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D190" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E190" s="17"/>
+      <c r="F190" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G190" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H190" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I190" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J190" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="191" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B191" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C191" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D191" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E191" s="27"/>
-      <c r="F191" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="G191" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H191" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I191" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="J191" s="26" t="s">
+      <c r="B191" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C191" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D191" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E191" s="17"/>
+      <c r="F191" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G191" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H191" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I191" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="J191" s="16" t="s">
         <v>371</v>
       </c>
     </row>
@@ -14621,10 +14687,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H1000"/>
+  <dimension ref="B1:H1007"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -14634,471 +14700,629 @@
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="56.28515625" style="32" customWidth="1"/>
+    <col min="6" max="6" width="56.28515625" style="22" customWidth="1"/>
     <col min="7" max="7" width="56.28515625" customWidth="1"/>
     <col min="8" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:8" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="3" spans="2:8" ht="14.25" customHeight="1" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="2:8" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="E4" s="38">
+        <v>45014</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>409</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="2:8" ht="14.25" customHeight="1" thickBot="1">
+      <c r="B5" s="28" t="s">
         <v>397</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C5" s="37" t="s">
         <v>398</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D5" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E5" s="38">
         <v>45003</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F5" s="39" t="s">
         <v>399</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G5" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="2:8" ht="14.25" customHeight="1" thickBot="1">
+      <c r="B6" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="38">
+        <v>44976</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="G6" s="40" t="s">
         <v>403</v>
       </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="2:8" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B5" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="C5" s="20" t="s">
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B7" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="38">
+        <v>44898</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B8" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="E8" s="38">
+        <v>44791</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B9" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>411</v>
+      </c>
+      <c r="E9" s="38">
+        <v>44723</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B10" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>423</v>
+      </c>
+      <c r="E10" s="38">
+        <v>43379</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>424</v>
+      </c>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B11" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="E11" s="38">
+        <v>43223</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>416</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="38">
+        <v>43197</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B13" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="38">
+        <v>43146</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B14" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="38">
+        <v>43139</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B15" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="38">
+        <v>43139</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B16" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="38">
+        <v>43112</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B17" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="38">
+        <v>43108</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B18" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="38">
+        <v>43105</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B19" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="38">
+        <v>43090</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B20" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="38">
+        <v>43089</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B21" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="38">
+        <v>43078</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B22" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="38">
+        <v>43073</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B23" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="38">
+        <v>43067</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>417</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B24" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="38">
+        <v>43060</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B25" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" s="38">
+        <v>43033</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B26" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="E26" s="38">
+        <v>43013</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26" s="40" t="s">
+        <v>389</v>
+      </c>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B27" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" s="38">
+        <v>42980</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B28" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="E5" s="21">
-        <v>44976</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>402</v>
-      </c>
-      <c r="G5" s="44" t="s">
-        <v>404</v>
-      </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="42" t="s">
+      <c r="D28" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28" s="38">
+        <v>42921</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" s="40" t="s">
+        <v>391</v>
+      </c>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="2:8" ht="14.25" customHeight="1" thickBot="1">
+      <c r="B29" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="43">
-        <v>43197</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B7" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="16">
-        <v>43146</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B8" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="16">
-        <v>43139</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>390</v>
-      </c>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B9" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="16">
-        <v>43139</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>379</v>
-      </c>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B10" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="16">
-        <v>43112</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B11" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="16">
-        <v>43108</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>381</v>
-      </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B12" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="16">
-        <v>43105</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B13" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="16">
-        <v>43090</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B14" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="16">
-        <v>43089</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>384</v>
-      </c>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B15" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="16">
-        <v>43078</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>385</v>
-      </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B16" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="16">
-        <v>43073</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B17" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="E17" s="16">
-        <v>43060</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>387</v>
-      </c>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B18" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E18" s="16">
-        <v>43033</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>388</v>
-      </c>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B19" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="E19" s="16">
-        <v>43013</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>389</v>
-      </c>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B20" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="E20" s="16">
-        <v>42980</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>390</v>
-      </c>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B21" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="E21" s="16">
-        <v>42921</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>391</v>
-      </c>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="2:8" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B22" s="19" t="s">
+      <c r="D29" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="38">
+        <v>42284</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="G29" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="2:8" ht="14.25" customHeight="1" thickBot="1">
+      <c r="B30" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="21">
-        <v>42284</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>375</v>
-      </c>
-      <c r="G22" s="44" t="s">
-        <v>392</v>
-      </c>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="2:8" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B23" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C23" s="20" t="s">
+      <c r="C30" s="37" t="s">
         <v>395</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D30" s="37" t="s">
         <v>394</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E30" s="38">
         <v>41737</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F30" s="39" t="s">
         <v>393</v>
       </c>
-      <c r="G23" s="44" t="s">
+      <c r="G30" s="40" t="s">
         <v>396</v>
       </c>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="2:8" ht="12" customHeight="1"/>
-    <row r="25" spans="2:8" ht="12" customHeight="1"/>
-    <row r="26" spans="2:8" ht="12" customHeight="1"/>
-    <row r="27" spans="2:8" ht="12" customHeight="1"/>
-    <row r="28" spans="2:8" ht="12" customHeight="1"/>
-    <row r="29" spans="2:8" ht="12" customHeight="1"/>
-    <row r="30" spans="2:8" ht="12" customHeight="1"/>
-    <row r="31" spans="2:8" ht="12" customHeight="1"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="2:8" ht="12" customHeight="1">
+      <c r="C31" s="43" t="s">
+        <v>429</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="G31" s="40" t="s">
+        <v>420</v>
+      </c>
+    </row>
     <row r="32" spans="2:8" ht="12" customHeight="1"/>
     <row r="33" ht="12" customHeight="1"/>
     <row r="34" ht="12" customHeight="1"/>
@@ -16068,45 +16292,69 @@
     <row r="998" ht="12" customHeight="1"/>
     <row r="999" ht="12" customHeight="1"/>
     <row r="1000" ht="12" customHeight="1"/>
+    <row r="1001" ht="12" customHeight="1"/>
+    <row r="1002" ht="12" customHeight="1"/>
+    <row r="1003" ht="12" customHeight="1"/>
+    <row r="1004" ht="12" customHeight="1"/>
+    <row r="1005" ht="12" customHeight="1"/>
+    <row r="1006" ht="12" customHeight="1"/>
+    <row r="1007" ht="12" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1"/>
-    <hyperlink ref="F7" r:id="rId2"/>
-    <hyperlink ref="F8" r:id="rId3"/>
-    <hyperlink ref="F10" r:id="rId4"/>
-    <hyperlink ref="F11" r:id="rId5"/>
-    <hyperlink ref="F12" r:id="rId6"/>
-    <hyperlink ref="F13" r:id="rId7"/>
-    <hyperlink ref="F14" r:id="rId8"/>
-    <hyperlink ref="F15" r:id="rId9"/>
-    <hyperlink ref="F16" r:id="rId10"/>
-    <hyperlink ref="F17" r:id="rId11"/>
-    <hyperlink ref="F18" r:id="rId12"/>
-    <hyperlink ref="F19" r:id="rId13"/>
-    <hyperlink ref="F21" r:id="rId14"/>
-    <hyperlink ref="F9" r:id="rId15"/>
-    <hyperlink ref="F20" r:id="rId16"/>
-    <hyperlink ref="F22" r:id="rId17"/>
-    <hyperlink ref="G6" r:id="rId18"/>
-    <hyperlink ref="G7" r:id="rId19"/>
-    <hyperlink ref="G9" r:id="rId20"/>
-    <hyperlink ref="G10" r:id="rId21"/>
-    <hyperlink ref="G12" r:id="rId22"/>
-    <hyperlink ref="G13" r:id="rId23"/>
-    <hyperlink ref="G14" r:id="rId24"/>
-    <hyperlink ref="G15" r:id="rId25"/>
-    <hyperlink ref="G16" r:id="rId26"/>
-    <hyperlink ref="G17" r:id="rId27"/>
-    <hyperlink ref="G18" r:id="rId28"/>
-    <hyperlink ref="G19" r:id="rId29"/>
-    <hyperlink ref="G21" r:id="rId30"/>
-    <hyperlink ref="G22" r:id="rId31"/>
-    <hyperlink ref="F23" r:id="rId32"/>
-    <hyperlink ref="G23" r:id="rId33"/>
-    <hyperlink ref="G4" r:id="rId34"/>
-    <hyperlink ref="G5" r:id="rId35"/>
+    <hyperlink ref="F12" r:id="rId1"/>
+    <hyperlink ref="F13" r:id="rId2"/>
+    <hyperlink ref="F14" r:id="rId3"/>
+    <hyperlink ref="F16" r:id="rId4"/>
+    <hyperlink ref="F17" r:id="rId5"/>
+    <hyperlink ref="F18" r:id="rId6"/>
+    <hyperlink ref="F19" r:id="rId7"/>
+    <hyperlink ref="F20" r:id="rId8"/>
+    <hyperlink ref="F21" r:id="rId9"/>
+    <hyperlink ref="F22" r:id="rId10"/>
+    <hyperlink ref="F24" r:id="rId11"/>
+    <hyperlink ref="F25" r:id="rId12"/>
+    <hyperlink ref="F26" r:id="rId13"/>
+    <hyperlink ref="F28" r:id="rId14"/>
+    <hyperlink ref="F15" r:id="rId15"/>
+    <hyperlink ref="F27" r:id="rId16"/>
+    <hyperlink ref="F29" r:id="rId17"/>
+    <hyperlink ref="G12" r:id="rId18"/>
+    <hyperlink ref="G13" r:id="rId19"/>
+    <hyperlink ref="G15" r:id="rId20"/>
+    <hyperlink ref="G16" r:id="rId21"/>
+    <hyperlink ref="G18" r:id="rId22"/>
+    <hyperlink ref="G19" r:id="rId23"/>
+    <hyperlink ref="G20" r:id="rId24"/>
+    <hyperlink ref="G21" r:id="rId25"/>
+    <hyperlink ref="G22" r:id="rId26"/>
+    <hyperlink ref="G24" r:id="rId27"/>
+    <hyperlink ref="G25" r:id="rId28"/>
+    <hyperlink ref="G26" r:id="rId29"/>
+    <hyperlink ref="G28" r:id="rId30"/>
+    <hyperlink ref="G29" r:id="rId31"/>
+    <hyperlink ref="F30" r:id="rId32"/>
+    <hyperlink ref="G30" r:id="rId33"/>
+    <hyperlink ref="G6" r:id="rId34"/>
+    <hyperlink ref="G2" r:id="rId35"/>
+    <hyperlink ref="G7" r:id="rId36"/>
+    <hyperlink ref="G5" r:id="rId37"/>
+    <hyperlink ref="F4" r:id="rId38"/>
+    <hyperlink ref="G4" r:id="rId39"/>
+    <hyperlink ref="G9" r:id="rId40"/>
+    <hyperlink ref="G11" r:id="rId41"/>
+    <hyperlink ref="F11" r:id="rId42"/>
+    <hyperlink ref="G23" r:id="rId43"/>
+    <hyperlink ref="F31" r:id="rId44" location="cite_note-11 "/>
+    <hyperlink ref="G31" r:id="rId45"/>
+    <hyperlink ref="G10" r:id="rId46"/>
+    <hyperlink ref="F8" r:id="rId47"/>
+    <hyperlink ref="G8" r:id="rId48"/>
+    <hyperlink ref="F10" r:id="rId49"/>
+    <hyperlink ref="F9" r:id="rId50"/>
+    <hyperlink ref="F7" r:id="rId51"/>
+    <hyperlink ref="F23" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId36"/>
+  <pageSetup orientation="landscape" r:id="rId53"/>
 </worksheet>
 </file>